--- a/Reference Architecture - for publishing artefacts.xlsx
+++ b/Reference Architecture - for publishing artefacts.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Documents\GitHub\reference-architecture\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917D424-4E22-426E-9ADF-B0990CBD9B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C33">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">@Bert, it is the same of Evolution.Instance Management ?
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>@Bert, it is the same of Evolution.Instance Management ?
 	-Emidio Stani</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -323,51 +340,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -375,7 +403,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -391,11 +419,21 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -407,6 +445,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -415,17 +455,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -434,6 +479,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -448,98 +496,97 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -729,493 +776,493 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.75"/>
-    <col customWidth="1" min="2" max="2" width="49.63"/>
-    <col customWidth="1" min="3" max="3" width="47.75"/>
-    <col customWidth="1" min="5" max="5" width="23.5"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" ht="121.5" customHeight="1">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10">
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14">
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15">
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="23" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21">
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23">
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24">
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="14" t="s">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="23" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="14" t="s">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="24"/>
-      <c r="B33" s="14" t="s">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" ht="42.0" customHeight="1">
+    <row r="36" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" ht="26.25" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:C2"/>
@@ -1224,20 +1271,25 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="D1"/>
-    <hyperlink r:id="rId3" ref="E1"/>
-    <hyperlink r:id="rId4" ref="E10"/>
-    <hyperlink r:id="rId5" ref="E15"/>
-    <hyperlink r:id="rId6" ref="E21"/>
-    <hyperlink r:id="rId7" ref="E24"/>
-    <hyperlink r:id="rId8" location="cicd" ref="E27"/>
-    <hyperlink r:id="rId9" ref="E34"/>
-    <hyperlink r:id="rId10" ref="D35"/>
-    <hyperlink r:id="rId11" ref="E35"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E27" r:id="rId7" location="cicd" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D35" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/Reference Architecture - for publishing artefacts.xlsx
+++ b/Reference Architecture - for publishing artefacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Documents\GitHub\reference-architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917D424-4E22-426E-9ADF-B0990CBD9B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DB952C-B918-4C4E-B070-77F4C70E5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,14 +547,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -567,6 +564,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -801,17 +801,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -827,7 +827,7 @@
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -855,7 +855,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -946,7 +946,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1003,7 +1003,7 @@
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1042,7 +1042,7 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1123,7 +1123,7 @@
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1149,7 +1149,7 @@
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1208,7 +1208,7 @@
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="50" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
